--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3732178.012844092</v>
+        <v>3730822.123529296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2206753.760730266</v>
+        <v>2206753.760730267</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21320.78642770745</v>
+        <v>21320.78642770717</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>44.13217237922859</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,17 +820,17 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>42.20118209180436</v>
+      </c>
+      <c r="F4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F4" t="n">
-        <v>22.65313100102799</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,17 +975,17 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7904504476822691</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>60.34121737400412</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>93.41644634782176</v>
+        <v>45.03847985886835</v>
       </c>
       <c r="G8" t="n">
-        <v>93.41644634782176</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>82.28120594316137</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>86.30101943956662</v>
       </c>
       <c r="G9" t="n">
-        <v>93.41644634782176</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>39.77052123754626</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.2793665869988</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C11" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D11" t="n">
-        <v>267.2285665442012</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E11" t="n">
-        <v>294.47589499578</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F11" t="n">
-        <v>319.4215706652297</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G11" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H11" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987337</v>
       </c>
       <c r="I11" t="n">
-        <v>31.04156581740854</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.19841205165841</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T11" t="n">
         <v>125.1973880384843</v>
@@ -1436,7 +1436,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.37750510545554</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C13" t="n">
-        <v>79.79234602214608</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D13" t="n">
-        <v>61.1609979417306</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E13" t="n">
-        <v>58.97948757008741</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F13" t="n">
-        <v>57.96657294644949</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G13" t="n">
-        <v>79.4663014780887</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H13" t="n">
-        <v>65.25762159275081</v>
+        <v>65.25762159275088</v>
       </c>
       <c r="I13" t="n">
-        <v>35.81208280293522</v>
+        <v>35.8120828029353</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.71870659130956</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S13" t="n">
-        <v>117.9114068236369</v>
+        <v>117.9114068236365</v>
       </c>
       <c r="T13" t="n">
-        <v>135.9184296442781</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U13" t="n">
-        <v>198.8061795816152</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V13" t="n">
         <v>164.6831682473463</v>
@@ -1591,10 +1591,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X13" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.130178275613</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I14" t="n">
-        <v>31.04156581740846</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T14" t="n">
         <v>125.1973880384843</v>
@@ -1704,7 +1704,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C16" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D16" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E16" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F16" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G16" t="n">
         <v>79.46630147808875</v>
@@ -1783,7 +1783,7 @@
         <v>65.25762159275087</v>
       </c>
       <c r="I16" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.71870659130957</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S16" t="n">
         <v>117.911406823637</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C17" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D17" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E17" t="n">
-        <v>294.4758949957801</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F17" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G17" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H17" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I17" t="n">
         <v>31.0415658174086</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165845</v>
       </c>
       <c r="T17" t="n">
         <v>125.1973880384843</v>
@@ -1910,7 +1910,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C19" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D19" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E19" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F19" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294645046</v>
       </c>
       <c r="G19" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808872</v>
       </c>
       <c r="H19" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275084</v>
       </c>
       <c r="I19" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293526</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659130959</v>
       </c>
       <c r="S19" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T19" t="n">
         <v>135.918429644277</v>
       </c>
       <c r="U19" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V19" t="n">
         <v>164.6831682473463</v>
@@ -2065,10 +2065,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X19" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.1301782756131</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C20" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D20" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E20" t="n">
-        <v>294.4758949957801</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F20" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G20" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H20" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I20" t="n">
         <v>31.0415658174086</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165845</v>
       </c>
       <c r="T20" t="n">
-        <v>125.1973880384845</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U20" t="n">
         <v>163.7003111458189</v>
@@ -2147,7 +2147,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C22" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D22" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E22" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F22" t="n">
-        <v>57.96657294644944</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G22" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808871</v>
       </c>
       <c r="H22" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275082</v>
       </c>
       <c r="I22" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293525</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659130958</v>
       </c>
       <c r="S22" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T22" t="n">
         <v>135.918429644277</v>
@@ -2302,10 +2302,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X22" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.1301782756131</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C23" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D23" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E23" t="n">
-        <v>294.4758949957801</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F23" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G23" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H23" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I23" t="n">
         <v>31.0415658174086</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165845</v>
       </c>
       <c r="T23" t="n">
         <v>125.1973880384845</v>
@@ -2384,7 +2384,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I24" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S24" t="n">
         <v>147.9721212459916</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C25" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D25" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E25" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008793</v>
       </c>
       <c r="F25" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G25" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808872</v>
       </c>
       <c r="H25" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275084</v>
       </c>
       <c r="I25" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293526</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659130959</v>
       </c>
       <c r="S25" t="n">
         <v>117.9114068236369</v>
@@ -2530,7 +2530,7 @@
         <v>135.918429644277</v>
       </c>
       <c r="U25" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V25" t="n">
         <v>164.6831682473463</v>
@@ -2539,10 +2539,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X25" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.1301782756131</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I26" t="n">
-        <v>38.49405148193719</v>
+        <v>38.49405148193721</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.6508977161871</v>
+        <v>74.65089771618706</v>
       </c>
       <c r="T26" t="n">
         <v>132.6498737030129</v>
@@ -2652,7 +2652,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I27" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S27" t="n">
         <v>147.9721212459916</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.82999076998421</v>
+        <v>99.82999076998418</v>
       </c>
       <c r="C28" t="n">
-        <v>87.24483168667474</v>
+        <v>87.24483168667471</v>
       </c>
       <c r="D28" t="n">
-        <v>30.08234386726094</v>
+        <v>68.61348360625924</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>66.43197323461605</v>
       </c>
       <c r="F28" t="n">
-        <v>65.41905861097815</v>
+        <v>65.41905861097813</v>
       </c>
       <c r="G28" t="n">
-        <v>86.91878714261736</v>
+        <v>86.91878714261733</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>43.26456846746389</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.17119225583822</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>125.3638924881655</v>
@@ -2767,7 +2767,7 @@
         <v>143.3709153088056</v>
       </c>
       <c r="U28" t="n">
-        <v>206.2586652461439</v>
+        <v>193.7313129958319</v>
       </c>
       <c r="V28" t="n">
         <v>172.1356539118749</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.7318522515275</v>
+        <v>302.7318522515274</v>
       </c>
       <c r="C29" t="n">
         <v>285.2709023590544</v>
       </c>
       <c r="D29" t="n">
-        <v>274.6810522087299</v>
+        <v>274.6810522087298</v>
       </c>
       <c r="E29" t="n">
-        <v>301.9283806603087</v>
+        <v>301.9283806603086</v>
       </c>
       <c r="F29" t="n">
         <v>326.8740563297583</v>
       </c>
       <c r="G29" t="n">
-        <v>332.9149145339837</v>
+        <v>332.9149145339836</v>
       </c>
       <c r="H29" t="n">
-        <v>235.0388946632625</v>
+        <v>235.0388946632624</v>
       </c>
       <c r="I29" t="n">
-        <v>38.49405148193719</v>
+        <v>38.49405148193715</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>74.6508977161871</v>
+        <v>74.650897716187</v>
       </c>
       <c r="T29" t="n">
-        <v>132.6498737030129</v>
+        <v>132.6498737030128</v>
       </c>
       <c r="U29" t="n">
         <v>171.1527968103475</v>
       </c>
       <c r="V29" t="n">
-        <v>247.7502690581818</v>
+        <v>247.7502690581817</v>
       </c>
       <c r="W29" t="n">
-        <v>269.2389793054599</v>
+        <v>269.2389793054598</v>
       </c>
       <c r="X29" t="n">
         <v>289.7291112665159</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.2359492441005</v>
+        <v>306.2359492441004</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I30" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S30" t="n">
         <v>147.9721212459916</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.82999076998421</v>
+        <v>14.59253126239448</v>
       </c>
       <c r="C31" t="n">
-        <v>87.24483168667474</v>
+        <v>87.24483168667466</v>
       </c>
       <c r="D31" t="n">
-        <v>68.61348360625927</v>
+        <v>68.61348360625918</v>
       </c>
       <c r="E31" t="n">
-        <v>66.43197323461608</v>
+        <v>66.431973234616</v>
       </c>
       <c r="F31" t="n">
-        <v>65.41905861097815</v>
+        <v>65.41905861097807</v>
       </c>
       <c r="G31" t="n">
-        <v>74.39143489230511</v>
+        <v>86.91878714261728</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.71010725727939</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>125.3638924881655</v>
       </c>
       <c r="T31" t="n">
-        <v>143.3709153088056</v>
+        <v>143.3709153088055</v>
       </c>
       <c r="U31" t="n">
-        <v>206.2586652461439</v>
+        <v>206.2586652461438</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1356539118749</v>
+        <v>172.1356539118748</v>
       </c>
       <c r="W31" t="n">
-        <v>206.5210089246379</v>
+        <v>206.5210089246378</v>
       </c>
       <c r="X31" t="n">
         <v>145.707665977084</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.5826639401417</v>
+        <v>138.5826639401416</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I32" t="n">
-        <v>31.0415658174086</v>
+        <v>31.04156581740864</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.19841205165848</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T32" t="n">
         <v>125.1973880384843</v>
@@ -3126,7 +3126,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I33" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S33" t="n">
         <v>147.9721212459916</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C34" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D34" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E34" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F34" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G34" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H34" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275087</v>
       </c>
       <c r="I34" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S34" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T34" t="n">
         <v>135.918429644277</v>
@@ -3442,7 +3442,7 @@
         <v>65.25762159275087</v>
       </c>
       <c r="I37" t="n">
-        <v>35.81208280293516</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>227.5864089987339</v>
       </c>
       <c r="I38" t="n">
-        <v>31.0415658174086</v>
+        <v>31.04156581740862</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165848</v>
       </c>
       <c r="T38" t="n">
         <v>125.1973880384843</v>
@@ -3600,7 +3600,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I39" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S39" t="n">
         <v>147.9721212459916</v>
@@ -3673,13 +3673,13 @@
         <v>57.96657294644955</v>
       </c>
       <c r="G40" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H40" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275074</v>
       </c>
       <c r="I40" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659130962</v>
       </c>
       <c r="S40" t="n">
         <v>117.911406823637</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C41" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D41" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E41" t="n">
-        <v>294.4758949957802</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F41" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G41" t="n">
-        <v>325.4624288694552</v>
+        <v>325.4624288694556</v>
       </c>
       <c r="H41" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I41" t="n">
-        <v>31.04156581740868</v>
+        <v>31.04156581740857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.19841205165854</v>
+        <v>67.19841205165842</v>
       </c>
       <c r="T41" t="n">
-        <v>125.1973880384844</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U41" t="n">
-        <v>163.700311145819</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V41" t="n">
-        <v>240.2977833936533</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W41" t="n">
-        <v>261.7864936409314</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X41" t="n">
-        <v>282.2766256019874</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.783463579572</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.37750510545565</v>
+        <v>92.37750510545554</v>
       </c>
       <c r="C43" t="n">
-        <v>79.79234602214619</v>
+        <v>79.79234602214608</v>
       </c>
       <c r="D43" t="n">
-        <v>61.16099794173071</v>
+        <v>61.1609979417306</v>
       </c>
       <c r="E43" t="n">
-        <v>58.97948757008753</v>
+        <v>58.97948757008741</v>
       </c>
       <c r="F43" t="n">
-        <v>57.96657294644817</v>
+        <v>57.96657294644949</v>
       </c>
       <c r="G43" t="n">
-        <v>79.46630147808881</v>
+        <v>79.4663014780887</v>
       </c>
       <c r="H43" t="n">
-        <v>65.25762159275092</v>
+        <v>65.25762159275197</v>
       </c>
       <c r="I43" t="n">
-        <v>35.81208280293534</v>
+        <v>35.81208280293523</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71870659130968</v>
+        <v>41.71870659130956</v>
       </c>
       <c r="S43" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T43" t="n">
-        <v>135.9184296442771</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U43" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V43" t="n">
-        <v>164.6831682473464</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W43" t="n">
-        <v>199.0685232601094</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X43" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.1301782756132</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>67.19841205165848</v>
       </c>
       <c r="T44" t="n">
-        <v>125.197388038484</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U44" t="n">
         <v>163.7003111458189</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="D2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="E2" t="n">
-        <v>149.3344187320537</v>
+        <v>104.756466833843</v>
       </c>
       <c r="F2" t="n">
-        <v>104.756466833843</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G2" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
         <v>15.60056303742164</v>
@@ -4334,10 +4334,10 @@
         <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
         <v>132.8378388614781</v>
@@ -4358,22 +4358,22 @@
         <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="W2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="X2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.4370741486873</v>
+        <v>104.756466833843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.10852568854899</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>48.10852568854899</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>48.10852568854899</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
         <v>3.530573790338288</v>
@@ -4416,16 +4416,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
         <v>176.5286895169144</v>
@@ -4452,7 +4452,7 @@
         <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D4" t="n">
-        <v>131.9507376187037</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E4" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F4" t="n">
-        <v>64.49083521440409</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G4" t="n">
-        <v>64.49083521440409</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>64.49083521440409</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>64.49083521440409</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>64.49083521440409</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>69.3105240343566</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>108.4985622265788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>152.1894128820151</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>176.5286895169144</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F5" t="n">
-        <v>60.17851493563234</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G5" t="n">
         <v>15.60056303742164</v>
@@ -4568,16 +4568,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
         <v>176.5286895169144</v>
@@ -4592,25 +4592,25 @@
         <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>104.756466833843</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C6" t="n">
+        <v>92.68647758675968</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.68647758675968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>92.68647758675968</v>
+      </c>
+      <c r="F6" t="n">
         <v>48.10852568854899</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.530573790338288</v>
-      </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
         <v>3.530573790338288</v>
@@ -4647,49 +4647,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="M6" t="n">
         <v>47.22142444577459</v>
-      </c>
-      <c r="L6" t="n">
-        <v>90.91227510121089</v>
-      </c>
-      <c r="M6" t="n">
-        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
         <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>90.91227510121089</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P6" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V6" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="7">
@@ -4705,22 +4705,22 @@
         <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G7" t="n">
-        <v>137.2644294849704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
         <v>3.530573790338288</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.57417002306</v>
+        <v>80.4940295751145</v>
       </c>
       <c r="C8" t="n">
-        <v>363.57417002306</v>
+        <v>80.4940295751145</v>
       </c>
       <c r="D8" t="n">
-        <v>302.6234454028538</v>
+        <v>80.4940295751145</v>
       </c>
       <c r="E8" t="n">
-        <v>208.2633985868723</v>
+        <v>80.4940295751145</v>
       </c>
       <c r="F8" t="n">
-        <v>113.9033517708907</v>
+        <v>35.00061557625757</v>
       </c>
       <c r="G8" t="n">
-        <v>19.54330495490909</v>
+        <v>19.54330495490903</v>
       </c>
       <c r="H8" t="n">
-        <v>19.54330495490909</v>
+        <v>19.54330495490903</v>
       </c>
       <c r="I8" t="n">
-        <v>19.54330495490909</v>
+        <v>19.54330495490903</v>
       </c>
       <c r="J8" t="n">
-        <v>7.473315707825741</v>
+        <v>7.473315707825679</v>
       </c>
       <c r="K8" t="n">
-        <v>96.21893973825642</v>
+        <v>99.95559759216846</v>
       </c>
       <c r="L8" t="n">
-        <v>188.7012216226</v>
+        <v>191.5234482148902</v>
       </c>
       <c r="M8" t="n">
-        <v>281.1835035069435</v>
+        <v>191.5234482148902</v>
       </c>
       <c r="N8" t="n">
-        <v>373.665785391287</v>
+        <v>191.5234482148902</v>
       </c>
       <c r="O8" t="n">
-        <v>373.665785391287</v>
+        <v>284.005730099233</v>
       </c>
       <c r="P8" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="Q8" t="n">
-        <v>363.57417002306</v>
+        <v>363.5741700230569</v>
       </c>
       <c r="R8" t="n">
-        <v>363.57417002306</v>
+        <v>269.2141232070761</v>
       </c>
       <c r="S8" t="n">
-        <v>363.57417002306</v>
+        <v>269.2141232070761</v>
       </c>
       <c r="T8" t="n">
-        <v>363.57417002306</v>
+        <v>269.2141232070761</v>
       </c>
       <c r="U8" t="n">
-        <v>363.57417002306</v>
+        <v>269.2141232070761</v>
       </c>
       <c r="V8" t="n">
-        <v>363.57417002306</v>
+        <v>269.2141232070761</v>
       </c>
       <c r="W8" t="n">
-        <v>363.57417002306</v>
+        <v>174.8540763910953</v>
       </c>
       <c r="X8" t="n">
-        <v>363.57417002306</v>
+        <v>80.4940295751145</v>
       </c>
       <c r="Y8" t="n">
-        <v>363.57417002306</v>
+        <v>80.4940295751145</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="C9" t="n">
-        <v>290.5534561557705</v>
+        <v>373.665785391284</v>
       </c>
       <c r="D9" t="n">
-        <v>196.1934093397889</v>
+        <v>373.665785391284</v>
       </c>
       <c r="E9" t="n">
-        <v>101.8333625238073</v>
+        <v>373.665785391284</v>
       </c>
       <c r="F9" t="n">
-        <v>101.8333625238073</v>
+        <v>286.4930384826308</v>
       </c>
       <c r="G9" t="n">
-        <v>7.473315707825741</v>
+        <v>192.13299166665</v>
       </c>
       <c r="H9" t="n">
-        <v>7.473315707825741</v>
+        <v>97.77294485066919</v>
       </c>
       <c r="I9" t="n">
-        <v>7.473315707825741</v>
+        <v>7.473315707825679</v>
       </c>
       <c r="J9" t="n">
-        <v>7.473315707825741</v>
+        <v>7.473315707825679</v>
       </c>
       <c r="K9" t="n">
-        <v>99.95559759216928</v>
+        <v>99.95559759216846</v>
       </c>
       <c r="L9" t="n">
-        <v>119.3066631092707</v>
+        <v>192.4378794765112</v>
       </c>
       <c r="M9" t="n">
-        <v>211.7889449936142</v>
+        <v>192.4378794765112</v>
       </c>
       <c r="N9" t="n">
-        <v>211.7889449936142</v>
+        <v>284.920161360854</v>
       </c>
       <c r="O9" t="n">
-        <v>211.7889449936142</v>
+        <v>284.920161360854</v>
       </c>
       <c r="P9" t="n">
-        <v>304.2712268779578</v>
+        <v>304.2712268779547</v>
       </c>
       <c r="Q9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="R9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="S9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="T9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="U9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="V9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="W9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="X9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
       <c r="Y9" t="n">
-        <v>373.665785391287</v>
+        <v>373.665785391284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="C10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="D10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="E10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="F10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="G10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="H10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="I10" t="n">
-        <v>7.473315707825741</v>
+        <v>101.775517845879</v>
       </c>
       <c r="J10" t="n">
-        <v>7.473315707825741</v>
+        <v>7.473315707825679</v>
       </c>
       <c r="K10" t="n">
-        <v>7.473315707825741</v>
+        <v>7.473315707825679</v>
       </c>
       <c r="L10" t="n">
-        <v>34.78744071553872</v>
+        <v>34.78744071553866</v>
       </c>
       <c r="M10" t="n">
-        <v>73.9754789077609</v>
+        <v>73.97547890776085</v>
       </c>
       <c r="N10" t="n">
         <v>117.6663295631972</v>
       </c>
       <c r="O10" t="n">
-        <v>142.0056061980965</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="P10" t="n">
-        <v>142.0056061980965</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.0056061980965</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="R10" t="n">
-        <v>142.0056061980965</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="S10" t="n">
-        <v>47.6455593821149</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="T10" t="n">
-        <v>47.6455593821149</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="U10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="V10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="W10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="X10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.473315707825741</v>
+        <v>142.0056061980964</v>
       </c>
     </row>
     <row r="11">
@@ -5015,61 +5015,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1832.328643028361</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.703979700557</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D11" t="n">
         <v>1281.776134706415</v>
       </c>
       <c r="E11" t="n">
-        <v>984.3257357207784</v>
+        <v>984.3257357207788</v>
       </c>
       <c r="F11" t="n">
-        <v>661.6776845437787</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G11" t="n">
-        <v>332.927756392814</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H11" t="n">
-        <v>103.0424947779315</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I11" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J11" t="n">
-        <v>147.4108273418312</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K11" t="n">
-        <v>550.8779403618767</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L11" t="n">
-        <v>1103.691198608076</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M11" t="n">
-        <v>1735.409009591388</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N11" t="n">
-        <v>2362.716677651234</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O11" t="n">
-        <v>2909.877882418311</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P11" t="n">
-        <v>3339.192928757606</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q11" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R11" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S11" t="n">
-        <v>3516.491705641943</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T11" t="n">
-        <v>3390.029697522261</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U11" t="n">
         <v>3224.675847880021</v>
@@ -5078,13 +5078,13 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W11" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X11" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y11" t="n">
-        <v>2130.590629479875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>218.5082126555291</v>
       </c>
       <c r="H12" t="n">
-        <v>117.5922348003336</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I12" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J12" t="n">
         <v>190.3466296475458</v>
       </c>
       <c r="K12" t="n">
-        <v>519.7750339533557</v>
+        <v>421.6297119053025</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.136573819474</v>
+        <v>925.991251771421</v>
       </c>
       <c r="M12" t="n">
-        <v>1251.258460284988</v>
+        <v>1566.536601238526</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.915201937652</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O12" t="n">
-        <v>1999.351210690375</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P12" t="n">
         <v>2423.318979171212</v>
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.5514286534666</v>
+        <v>514.5514286534672</v>
       </c>
       <c r="C13" t="n">
-        <v>433.9530993381675</v>
+        <v>433.953099338168</v>
       </c>
       <c r="D13" t="n">
-        <v>372.1743135384397</v>
+        <v>372.1743135384401</v>
       </c>
       <c r="E13" t="n">
-        <v>312.5990735686544</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F13" t="n">
-        <v>254.0469796833519</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G13" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H13" t="n">
-        <v>107.861198803716</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I13" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K13" t="n">
-        <v>328.3762845747425</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L13" t="n">
-        <v>599.7892098012778</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M13" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N13" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O13" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P13" t="n">
         <v>1656.744368646702</v>
       </c>
       <c r="Q13" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R13" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S13" t="n">
         <v>1585.500079589803</v>
@@ -5230,19 +5230,19 @@
         <v>1448.208736514775</v>
       </c>
       <c r="U13" t="n">
-        <v>1247.394413705062</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V13" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9684626874302</v>
+        <v>879.968462687431</v>
       </c>
       <c r="X13" t="n">
-        <v>740.3167654020207</v>
+        <v>740.3167654020215</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.8620398710984</v>
+        <v>607.8620398710991</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E14" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F14" t="n">
-        <v>661.6776845437789</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9277563928142</v>
+        <v>332.9277563928143</v>
       </c>
       <c r="H14" t="n">
-        <v>103.0424947779314</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I14" t="n">
         <v>71.68737779065016</v>
@@ -5279,19 +5279,19 @@
         <v>260.3272768043865</v>
       </c>
       <c r="K14" t="n">
-        <v>663.794389824432</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L14" t="n">
         <v>1216.607648070631</v>
       </c>
       <c r="M14" t="n">
-        <v>1735.409009591389</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N14" t="n">
-        <v>2362.716677651235</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O14" t="n">
-        <v>2909.877882418313</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P14" t="n">
         <v>3339.192928757607</v>
@@ -5355,22 +5355,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J15" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K15" t="n">
-        <v>401.11578209646</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L15" t="n">
-        <v>905.4773219625786</v>
+        <v>657.0046319690496</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.974658317183</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N15" t="n">
-        <v>1758.180350569966</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.616359322689</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P15" t="n">
         <v>2423.318979171212</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>514.551428653467</v>
+        <v>514.5514286534665</v>
       </c>
       <c r="C16" t="n">
-        <v>433.9530993381679</v>
+        <v>433.9530993381674</v>
       </c>
       <c r="D16" t="n">
-        <v>372.17431353844</v>
+        <v>372.1743135384394</v>
       </c>
       <c r="E16" t="n">
-        <v>312.5990735686547</v>
+        <v>312.599073568654</v>
       </c>
       <c r="F16" t="n">
-        <v>254.0469796833521</v>
+        <v>254.0469796833514</v>
       </c>
       <c r="G16" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913426</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037158</v>
       </c>
       <c r="I16" t="n">
         <v>71.68737779065016</v>
@@ -5440,13 +5440,13 @@
         <v>328.3762845747424</v>
       </c>
       <c r="L16" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M16" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462322</v>
       </c>
       <c r="N16" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O16" t="n">
         <v>1444.716861722369</v>
@@ -5467,19 +5467,19 @@
         <v>1448.208736514775</v>
       </c>
       <c r="U16" t="n">
-        <v>1247.394413705063</v>
+        <v>1247.394413705062</v>
       </c>
       <c r="V16" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W16" t="n">
-        <v>879.9684626874309</v>
+        <v>879.9684626874304</v>
       </c>
       <c r="X16" t="n">
-        <v>740.3167654020214</v>
+        <v>740.3167654020208</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.862039871099</v>
+        <v>607.8620398710984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1832.328643028362</v>
+        <v>1832.328643028361</v>
       </c>
       <c r="C17" t="n">
         <v>1551.703979700558</v>
@@ -5498,13 +5498,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E17" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F17" t="n">
         <v>661.6776845437789</v>
       </c>
       <c r="G17" t="n">
-        <v>332.9277563928144</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H17" t="n">
         <v>103.0424947779316</v>
@@ -5516,19 +5516,19 @@
         <v>260.3272768043865</v>
       </c>
       <c r="K17" t="n">
-        <v>663.794389824432</v>
+        <v>550.8779403618777</v>
       </c>
       <c r="L17" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M17" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N17" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O17" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P17" t="n">
         <v>3339.192928757607</v>
@@ -5552,13 +5552,13 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W17" t="n">
-        <v>2717.520012491552</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X17" t="n">
-        <v>2432.39210784308</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y17" t="n">
-        <v>2130.590629479876</v>
+        <v>2130.590629479875</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J18" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K18" t="n">
-        <v>401.11578209646</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L18" t="n">
-        <v>905.4773219625786</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M18" t="n">
-        <v>1546.022671429683</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N18" t="n">
-        <v>1744.679413082348</v>
+        <v>1839.838898021615</v>
       </c>
       <c r="O18" t="n">
-        <v>2294.115421835071</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P18" t="n">
         <v>2423.318979171212</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534678</v>
       </c>
       <c r="C19" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381687</v>
       </c>
       <c r="D19" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384408</v>
       </c>
       <c r="E19" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686555</v>
       </c>
       <c r="F19" t="n">
         <v>254.046979683352</v>
@@ -5665,7 +5665,7 @@
         <v>173.7779882913432</v>
       </c>
       <c r="H19" t="n">
-        <v>107.861198803716</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I19" t="n">
         <v>71.68737779065016</v>
@@ -5674,7 +5674,7 @@
         <v>140.7484246534158</v>
       </c>
       <c r="K19" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L19" t="n">
         <v>599.7892098012778</v>
@@ -5710,13 +5710,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W19" t="n">
-        <v>879.968462687431</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X19" t="n">
-        <v>740.3167654020215</v>
+        <v>740.3167654020219</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710997</v>
       </c>
     </row>
     <row r="20">
@@ -5735,52 +5735,52 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E20" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207785</v>
       </c>
       <c r="F20" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437785</v>
       </c>
       <c r="G20" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H20" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I20" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J20" t="n">
-        <v>147.4108273418325</v>
+        <v>260.3272768043864</v>
       </c>
       <c r="K20" t="n">
-        <v>550.877940361878</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L20" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M20" t="n">
-        <v>1735.409009591389</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N20" t="n">
-        <v>2362.716677651235</v>
+        <v>2362.716677651234</v>
       </c>
       <c r="O20" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P20" t="n">
-        <v>3339.192928757607</v>
+        <v>3339.192928757606</v>
       </c>
       <c r="Q20" t="n">
-        <v>3584.368889532508</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R20" t="n">
-        <v>3584.368889532508</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S20" t="n">
-        <v>3516.491705641944</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T20" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U20" t="n">
         <v>3224.675847880021</v>
@@ -5789,10 +5789,10 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W20" t="n">
-        <v>2717.520012491552</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X20" t="n">
-        <v>2432.39210784308</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y20" t="n">
         <v>2130.590629479876</v>
@@ -5826,7 +5826,7 @@
         <v>117.5922348003337</v>
       </c>
       <c r="I21" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J21" t="n">
         <v>190.3466296475458</v>
@@ -5838,10 +5838,10 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.633910174079</v>
+        <v>1641.18215636895</v>
       </c>
       <c r="N21" t="n">
-        <v>1449.915201937652</v>
+        <v>1839.838898021615</v>
       </c>
       <c r="O21" t="n">
         <v>1999.351210690375</v>
@@ -5887,37 +5887,37 @@
         <v>514.5514286534669</v>
       </c>
       <c r="C22" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D22" t="n">
         <v>372.1743135384399</v>
       </c>
       <c r="E22" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F22" t="n">
         <v>254.0469796833521</v>
       </c>
       <c r="G22" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913428</v>
       </c>
       <c r="H22" t="n">
         <v>107.8611988037161</v>
       </c>
       <c r="I22" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J22" t="n">
         <v>140.7484246534158</v>
       </c>
       <c r="K22" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747423</v>
       </c>
       <c r="L22" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M22" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N22" t="n">
         <v>1184.042036008054</v>
@@ -5944,10 +5944,10 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V22" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W22" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874307</v>
       </c>
       <c r="X22" t="n">
         <v>740.3167654020212</v>
@@ -5972,52 +5972,52 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E23" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207787</v>
       </c>
       <c r="F23" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G23" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H23" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I23" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J23" t="n">
-        <v>147.4108273418325</v>
+        <v>147.4108273418318</v>
       </c>
       <c r="K23" t="n">
-        <v>550.877940361878</v>
+        <v>550.8779403618772</v>
       </c>
       <c r="L23" t="n">
-        <v>1103.691198608077</v>
+        <v>1103.691198608076</v>
       </c>
       <c r="M23" t="n">
-        <v>1735.409009591389</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N23" t="n">
-        <v>2362.716677651235</v>
+        <v>2362.716677651234</v>
       </c>
       <c r="O23" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P23" t="n">
-        <v>3339.192928757607</v>
+        <v>3339.192928757606</v>
       </c>
       <c r="Q23" t="n">
-        <v>3584.368889532508</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="R23" t="n">
-        <v>3584.368889532508</v>
+        <v>3584.368889532507</v>
       </c>
       <c r="S23" t="n">
-        <v>3516.491705641944</v>
+        <v>3516.491705641943</v>
       </c>
       <c r="T23" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U23" t="n">
         <v>3224.675847880021</v>
@@ -6026,10 +6026,10 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W23" t="n">
-        <v>2717.520012491552</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X23" t="n">
-        <v>2432.39210784308</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y23" t="n">
         <v>2130.590629479876</v>
@@ -6063,7 +6063,7 @@
         <v>117.5922348003337</v>
       </c>
       <c r="I24" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J24" t="n">
         <v>190.3466296475458</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.551428653467</v>
+        <v>514.5514286534674</v>
       </c>
       <c r="C25" t="n">
-        <v>433.9530993381679</v>
+        <v>433.9530993381683</v>
       </c>
       <c r="D25" t="n">
-        <v>372.17431353844</v>
+        <v>372.1743135384403</v>
       </c>
       <c r="E25" t="n">
-        <v>312.5990735686547</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F25" t="n">
-        <v>254.0469796833521</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G25" t="n">
         <v>173.7779882913432</v>
@@ -6142,7 +6142,7 @@
         <v>107.8611988037161</v>
       </c>
       <c r="I25" t="n">
-        <v>71.68737779065016</v>
+        <v>71.68737779065015</v>
       </c>
       <c r="J25" t="n">
         <v>140.7484246534158</v>
@@ -6187,10 +6187,10 @@
         <v>879.9684626874309</v>
       </c>
       <c r="X25" t="n">
-        <v>740.3167654020214</v>
+        <v>740.3167654020215</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.862039871099</v>
+        <v>607.8620398710992</v>
       </c>
     </row>
     <row r="26">
@@ -6206,49 +6206,49 @@
         <v>1599.17497682155</v>
       </c>
       <c r="D26" t="n">
-        <v>1321.719368529903</v>
+        <v>1321.719368529904</v>
       </c>
       <c r="E26" t="n">
-        <v>1016.741206246763</v>
+        <v>1016.741206246764</v>
       </c>
       <c r="F26" t="n">
-        <v>686.56539177226</v>
+        <v>686.5653917722605</v>
       </c>
       <c r="G26" t="n">
-        <v>350.2877003237917</v>
+        <v>350.287700323792</v>
       </c>
       <c r="H26" t="n">
         <v>112.8746754114057</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J26" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K26" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N26" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O26" t="n">
         <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S26" t="n">
         <v>3624.184809142965</v>
@@ -6260,7 +6260,7 @@
         <v>3317.313424786035</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.060627757569</v>
+        <v>3067.060627757568</v>
       </c>
       <c r="W26" t="n">
         <v>2795.102062802559</v>
@@ -6300,19 +6300,19 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I27" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J27" t="n">
         <v>192.6510469835163</v>
       </c>
       <c r="K27" t="n">
-        <v>522.0794512893262</v>
+        <v>522.0794512893261</v>
       </c>
       <c r="L27" t="n">
         <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1253.562877620958</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N27" t="n">
         <v>1452.219619273623</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.0822898488379</v>
+        <v>452.4040519762625</v>
       </c>
       <c r="C28" t="n">
-        <v>301.9561972360352</v>
+        <v>364.2779593634598</v>
       </c>
       <c r="D28" t="n">
-        <v>271.569991309509</v>
+        <v>294.9714102662282</v>
       </c>
       <c r="E28" t="n">
-        <v>271.569991309509</v>
+        <v>227.8684069989393</v>
       </c>
       <c r="F28" t="n">
-        <v>205.4901341267027</v>
+        <v>161.7885498161331</v>
       </c>
       <c r="G28" t="n">
-        <v>117.6933794371902</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="H28" t="n">
-        <v>117.6933794371902</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I28" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J28" t="n">
         <v>135.6748811815029</v>
@@ -6388,7 +6388,7 @@
         <v>315.9247802949463</v>
       </c>
       <c r="L28" t="n">
-        <v>579.9597447135983</v>
+        <v>579.9597447135982</v>
       </c>
       <c r="M28" t="n">
         <v>864.4313149506697</v>
@@ -6406,28 +6406,28 @@
         <v>1690.023349265683</v>
       </c>
       <c r="R28" t="n">
-        <v>1640.35547830019</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="S28" t="n">
-        <v>1513.725283867699</v>
+        <v>1563.393154833192</v>
       </c>
       <c r="T28" t="n">
-        <v>1368.906177495168</v>
+        <v>1418.574048460661</v>
       </c>
       <c r="U28" t="n">
-        <v>1160.564091387952</v>
+        <v>1222.885853515377</v>
       </c>
       <c r="V28" t="n">
-        <v>986.6896934971692</v>
+        <v>1049.011455624594</v>
       </c>
       <c r="W28" t="n">
-        <v>778.0826137753127</v>
+        <v>840.4043759027372</v>
       </c>
       <c r="X28" t="n">
-        <v>630.9031531923995</v>
+        <v>693.224915319824</v>
       </c>
       <c r="Y28" t="n">
-        <v>490.9206643639735</v>
+        <v>553.2424264913981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1887.327403446858</v>
+        <v>1887.327403446857</v>
       </c>
       <c r="C29" t="n">
-        <v>1599.17497682155</v>
+        <v>1599.174976821549</v>
       </c>
       <c r="D29" t="n">
-        <v>1321.719368529904</v>
+        <v>1321.719368529903</v>
       </c>
       <c r="E29" t="n">
-        <v>1016.741206246764</v>
+        <v>1016.741206246763</v>
       </c>
       <c r="F29" t="n">
-        <v>686.5653917722602</v>
+        <v>686.5653917722597</v>
       </c>
       <c r="G29" t="n">
-        <v>350.2877003237917</v>
+        <v>350.2877003237913</v>
       </c>
       <c r="H29" t="n">
-        <v>112.8746754114057</v>
+        <v>112.8746754114059</v>
       </c>
       <c r="I29" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J29" t="n">
         <v>262.631694140357</v>
       </c>
       <c r="K29" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604023</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N29" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O29" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P29" t="n">
         <v>3454.413795556132</v>
       </c>
       <c r="Q29" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R29" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S29" t="n">
-        <v>3624.184809142965</v>
+        <v>3624.184809142963</v>
       </c>
       <c r="T29" t="n">
-        <v>3490.19503772578</v>
+        <v>3490.195037725779</v>
       </c>
       <c r="U29" t="n">
-        <v>3317.313424786036</v>
+        <v>3317.313424786034</v>
       </c>
       <c r="V29" t="n">
-        <v>3067.060627757569</v>
+        <v>3067.060627757568</v>
       </c>
       <c r="W29" t="n">
-        <v>2795.102062802559</v>
+        <v>2795.102062802558</v>
       </c>
       <c r="X29" t="n">
-        <v>2502.446394856583</v>
+        <v>2502.446394856582</v>
       </c>
       <c r="Y29" t="n">
-        <v>2193.117153195875</v>
+        <v>2193.117153195874</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I30" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J30" t="n">
         <v>192.6510469835163</v>
       </c>
       <c r="K30" t="n">
-        <v>522.0794512893262</v>
+        <v>522.0794512893261</v>
       </c>
       <c r="L30" t="n">
         <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>1205.93832751005</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N30" t="n">
         <v>1452.219619273623</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7501608143311</v>
+        <v>525.8486047613929</v>
       </c>
       <c r="C31" t="n">
-        <v>351.6240682015284</v>
+        <v>437.7225121485903</v>
       </c>
       <c r="D31" t="n">
-        <v>282.3175191042968</v>
+        <v>368.4159630513588</v>
       </c>
       <c r="E31" t="n">
-        <v>215.2145158370078</v>
+        <v>301.3129597840699</v>
       </c>
       <c r="F31" t="n">
-        <v>149.1346586542016</v>
+        <v>235.2331026012637</v>
       </c>
       <c r="G31" t="n">
-        <v>73.99179512662066</v>
+        <v>147.4363479117513</v>
       </c>
       <c r="H31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I31" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J31" t="n">
-        <v>135.6748811815029</v>
+        <v>135.674881181503</v>
       </c>
       <c r="K31" t="n">
-        <v>315.9247802949463</v>
+        <v>315.9247802949464</v>
       </c>
       <c r="L31" t="n">
-        <v>579.9597447135983</v>
+        <v>579.9597447135984</v>
       </c>
       <c r="M31" t="n">
-        <v>864.4313149506697</v>
+        <v>864.43131495067</v>
       </c>
       <c r="N31" t="n">
         <v>1149.456649304608</v>
       </c>
       <c r="O31" t="n">
-        <v>1402.75351421104</v>
+        <v>1402.753514211041</v>
       </c>
       <c r="P31" t="n">
-        <v>1607.403060327489</v>
+        <v>1607.40306032749</v>
       </c>
       <c r="Q31" t="n">
         <v>1690.023349265683</v>
@@ -6646,25 +6646,25 @@
         <v>1690.023349265683</v>
       </c>
       <c r="S31" t="n">
-        <v>1563.393154833192</v>
+        <v>1563.393154833193</v>
       </c>
       <c r="T31" t="n">
-        <v>1418.574048460661</v>
+        <v>1418.574048460662</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.231962353445</v>
+        <v>1210.231962353446</v>
       </c>
       <c r="V31" t="n">
-        <v>1036.357564462662</v>
+        <v>1036.357564462664</v>
       </c>
       <c r="W31" t="n">
-        <v>827.7504847408059</v>
+        <v>827.7504847408071</v>
       </c>
       <c r="X31" t="n">
-        <v>680.5710241578927</v>
+        <v>680.571024157894</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.5885353294667</v>
+        <v>540.5885353294682</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1832.328643028361</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.703979700557</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D32" t="n">
-        <v>1281.776134706414</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E32" t="n">
-        <v>984.3257357207781</v>
+        <v>984.3257357207785</v>
       </c>
       <c r="F32" t="n">
-        <v>661.6776845437782</v>
+        <v>661.6776845437787</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9277563928135</v>
+        <v>332.927756392814</v>
       </c>
       <c r="H32" t="n">
         <v>103.0424947779316</v>
       </c>
       <c r="I32" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J32" t="n">
         <v>260.3272768043865</v>
       </c>
       <c r="K32" t="n">
-        <v>663.794389824432</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L32" t="n">
         <v>1216.607648070631</v>
@@ -6716,34 +6716,34 @@
         <v>3022.794331880867</v>
       </c>
       <c r="P32" t="n">
-        <v>3452.109378220161</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q32" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R32" t="n">
-        <v>3584.368889532507</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.491705641943</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T32" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U32" t="n">
-        <v>3224.67584788002</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V32" t="n">
-        <v>2981.950814149057</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W32" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X32" t="n">
         <v>2432.392107843079</v>
       </c>
       <c r="Y32" t="n">
-        <v>2130.590629479875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>218.5082126555291</v>
       </c>
       <c r="H33" t="n">
-        <v>117.5922348003336</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I33" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J33" t="n">
         <v>190.3466296475458</v>
@@ -6786,10 +6786,10 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.633910174079</v>
+        <v>1641.18215636895</v>
       </c>
       <c r="N33" t="n">
-        <v>1449.915201937652</v>
+        <v>1839.838898021615</v>
       </c>
       <c r="O33" t="n">
         <v>1999.351210690375</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.5514286534666</v>
+        <v>514.5514286534665</v>
       </c>
       <c r="C34" t="n">
-        <v>433.9530993381675</v>
+        <v>433.9530993381674</v>
       </c>
       <c r="D34" t="n">
-        <v>372.1743135384395</v>
+        <v>372.1743135384394</v>
       </c>
       <c r="E34" t="n">
-        <v>312.5990735686542</v>
+        <v>312.5990735686541</v>
       </c>
       <c r="F34" t="n">
-        <v>254.0469796833517</v>
+        <v>254.0469796833515</v>
       </c>
       <c r="G34" t="n">
-        <v>173.7779882913428</v>
+        <v>173.7779882913426</v>
       </c>
       <c r="H34" t="n">
         <v>107.8611988037161</v>
       </c>
       <c r="I34" t="n">
-        <v>71.68737779065013</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J34" t="n">
         <v>140.7484246534157</v>
       </c>
       <c r="K34" t="n">
-        <v>328.3762845747423</v>
+        <v>328.3762845747422</v>
       </c>
       <c r="L34" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012774</v>
       </c>
       <c r="M34" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462322</v>
       </c>
       <c r="N34" t="n">
-        <v>1184.042036008054</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O34" t="n">
         <v>1444.716861722369</v>
@@ -6877,7 +6877,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R34" t="n">
         <v>1704.602510724789</v>
@@ -6889,19 +6889,19 @@
         <v>1448.208736514775</v>
       </c>
       <c r="U34" t="n">
-        <v>1247.394413705063</v>
+        <v>1247.394413705062</v>
       </c>
       <c r="V34" t="n">
         <v>1081.047779111783</v>
       </c>
       <c r="W34" t="n">
-        <v>879.9684626874305</v>
+        <v>879.9684626874301</v>
       </c>
       <c r="X34" t="n">
-        <v>740.3167654020209</v>
+        <v>740.3167654020206</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.8620398710985</v>
+        <v>607.8620398710984</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1832.328643028363</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.703979700559</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D35" t="n">
-        <v>1281.776134706416</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E35" t="n">
-        <v>984.3257357207794</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F35" t="n">
-        <v>661.6776845437796</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9277563928149</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H35" t="n">
         <v>103.0424947779316</v>
@@ -6944,13 +6944,13 @@
         <v>1216.607648070631</v>
       </c>
       <c r="M35" t="n">
-        <v>1735.409009591388</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N35" t="n">
-        <v>2362.716677651235</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O35" t="n">
-        <v>2909.877882418312</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P35" t="n">
         <v>3339.192928757607</v>
@@ -6965,22 +6965,22 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T35" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U35" t="n">
-        <v>3224.675847880022</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V35" t="n">
-        <v>2981.950814149059</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W35" t="n">
-        <v>2717.520012491553</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X35" t="n">
-        <v>2432.392107843081</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y35" t="n">
-        <v>2130.590629479877</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>519.7750339533557</v>
       </c>
       <c r="L36" t="n">
-        <v>1024.136573819474</v>
+        <v>657.0046319690496</v>
       </c>
       <c r="M36" t="n">
-        <v>1251.258460284988</v>
+        <v>1297.549981436154</v>
       </c>
       <c r="N36" t="n">
-        <v>1449.915201937652</v>
+        <v>1970.755673688937</v>
       </c>
       <c r="O36" t="n">
-        <v>1999.351210690375</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P36" t="n">
         <v>2423.318979171212</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534666</v>
       </c>
       <c r="C37" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381675</v>
       </c>
       <c r="D37" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384395</v>
       </c>
       <c r="E37" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686542</v>
       </c>
       <c r="F37" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833517</v>
       </c>
       <c r="G37" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913428</v>
       </c>
       <c r="H37" t="n">
-        <v>107.861198803716</v>
+        <v>107.8611988037155</v>
       </c>
       <c r="I37" t="n">
         <v>71.68737779065016</v>
@@ -7114,7 +7114,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.742618392779</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R37" t="n">
         <v>1704.602510724789</v>
@@ -7129,16 +7129,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V37" t="n">
-        <v>1081.047779111784</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W37" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874305</v>
       </c>
       <c r="X37" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020209</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710985</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.328643028362</v>
+        <v>1832.32864302836</v>
       </c>
       <c r="C38" t="n">
-        <v>1551.703979700558</v>
+        <v>1551.703979700556</v>
       </c>
       <c r="D38" t="n">
-        <v>1281.776134706415</v>
+        <v>1281.776134706414</v>
       </c>
       <c r="E38" t="n">
-        <v>984.3257357207785</v>
+        <v>984.3257357207776</v>
       </c>
       <c r="F38" t="n">
-        <v>661.6776845437787</v>
+        <v>661.6776845437782</v>
       </c>
       <c r="G38" t="n">
-        <v>332.9277563928139</v>
+        <v>332.9277563928135</v>
       </c>
       <c r="H38" t="n">
         <v>103.0424947779316</v>
@@ -7175,22 +7175,22 @@
         <v>260.3272768043865</v>
       </c>
       <c r="K38" t="n">
-        <v>663.794389824432</v>
+        <v>663.7943898244318</v>
       </c>
       <c r="L38" t="n">
         <v>1216.607648070631</v>
       </c>
       <c r="M38" t="n">
-        <v>1735.409009591388</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N38" t="n">
-        <v>2362.716677651235</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O38" t="n">
-        <v>2909.877882418312</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P38" t="n">
-        <v>3339.192928757607</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q38" t="n">
         <v>3584.368889532508</v>
@@ -7205,19 +7205,19 @@
         <v>3390.029697522262</v>
       </c>
       <c r="U38" t="n">
-        <v>3224.675847880021</v>
+        <v>3224.67584788002</v>
       </c>
       <c r="V38" t="n">
-        <v>2981.950814149058</v>
+        <v>2981.950814149057</v>
       </c>
       <c r="W38" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.52001249155</v>
       </c>
       <c r="X38" t="n">
         <v>2432.392107843079</v>
       </c>
       <c r="Y38" t="n">
-        <v>2130.590629479876</v>
+        <v>2130.590629479874</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J39" t="n">
-        <v>190.3466296475458</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="K39" t="n">
-        <v>519.7750339533557</v>
+        <v>139.2951974540072</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.136573819474</v>
+        <v>344.1406750762558</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.633910174079</v>
+        <v>984.6860245433604</v>
       </c>
       <c r="N39" t="n">
-        <v>1449.915201937652</v>
+        <v>1657.891716796143</v>
       </c>
       <c r="O39" t="n">
-        <v>1999.351210690375</v>
+        <v>2207.327725548866</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.318979171212</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q39" t="n">
         <v>2654.03243523168</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>514.5514286534668</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C40" t="n">
-        <v>433.9530993381677</v>
+        <v>433.9530993381678</v>
       </c>
       <c r="D40" t="n">
-        <v>372.1743135384398</v>
+        <v>372.1743135384399</v>
       </c>
       <c r="E40" t="n">
-        <v>312.5990735686544</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F40" t="n">
-        <v>254.0469796833519</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G40" t="n">
-        <v>173.777988291343</v>
+        <v>173.7779882913431</v>
       </c>
       <c r="H40" t="n">
         <v>107.8611988037161</v>
@@ -7336,10 +7336,10 @@
         <v>328.3762845747424</v>
       </c>
       <c r="L40" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M40" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N40" t="n">
         <v>1184.042036008054</v>
@@ -7351,7 +7351,7 @@
         <v>1656.744368646702</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R40" t="n">
         <v>1704.602510724789</v>
@@ -7363,19 +7363,19 @@
         <v>1448.208736514775</v>
       </c>
       <c r="U40" t="n">
-        <v>1247.394413705062</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V40" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W40" t="n">
-        <v>879.9684626874304</v>
+        <v>879.9684626874308</v>
       </c>
       <c r="X40" t="n">
-        <v>740.3167654020208</v>
+        <v>740.3167654020212</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.8620398710988</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1551.703979700558</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.776134706415</v>
+        <v>1281.776134706416</v>
       </c>
       <c r="E41" t="n">
-        <v>984.3257357207787</v>
+        <v>984.3257357207792</v>
       </c>
       <c r="F41" t="n">
-        <v>661.6776845437788</v>
+        <v>661.6776845437795</v>
       </c>
       <c r="G41" t="n">
-        <v>332.927756392814</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0424947779317</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I41" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J41" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418323</v>
       </c>
       <c r="K41" t="n">
-        <v>663.7943898244318</v>
+        <v>550.8779403618777</v>
       </c>
       <c r="L41" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M41" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O41" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P41" t="n">
-        <v>3452.109378220161</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q41" t="n">
         <v>3584.368889532508</v>
@@ -7439,7 +7439,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T41" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U41" t="n">
         <v>3224.675847880021</v>
@@ -7451,7 +7451,7 @@
         <v>2717.520012491552</v>
       </c>
       <c r="X41" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y41" t="n">
         <v>2130.590629479876</v>
@@ -7497,7 +7497,7 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.633910174079</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N42" t="n">
         <v>1449.915201937652</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>514.551428653466</v>
+        <v>514.5514286534678</v>
       </c>
       <c r="C43" t="n">
-        <v>433.9530993381669</v>
+        <v>433.9530993381688</v>
       </c>
       <c r="D43" t="n">
-        <v>372.1743135384389</v>
+        <v>372.1743135384409</v>
       </c>
       <c r="E43" t="n">
-        <v>312.5990735686535</v>
+        <v>312.5990735686556</v>
       </c>
       <c r="F43" t="n">
-        <v>254.0469796833523</v>
+        <v>254.0469796833531</v>
       </c>
       <c r="G43" t="n">
-        <v>173.7779882913434</v>
+        <v>173.7779882913443</v>
       </c>
       <c r="H43" t="n">
-        <v>107.8611988037162</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I43" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K43" t="n">
-        <v>328.3762845747423</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L43" t="n">
-        <v>599.7892098012774</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M43" t="n">
-        <v>891.6387408462322</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N43" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O43" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P43" t="n">
-        <v>1656.744368646701</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q43" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R43" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S43" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T43" t="n">
-        <v>1448.208736514774</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U43" t="n">
-        <v>1247.394413705062</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V43" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W43" t="n">
-        <v>879.9684626874299</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X43" t="n">
-        <v>740.3167654020203</v>
+        <v>740.3167654020219</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.862039871098</v>
+        <v>607.8620398710997</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>661.6776845437792</v>
       </c>
       <c r="G44" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H44" t="n">
         <v>103.0424947779316</v>
@@ -7807,46 +7807,46 @@
         <v>140.7484246534157</v>
       </c>
       <c r="K46" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L46" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M46" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N46" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O46" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P46" t="n">
         <v>1656.744368646702</v>
       </c>
       <c r="Q46" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R46" t="n">
         <v>1704.602510724789</v>
       </c>
       <c r="S46" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T46" t="n">
         <v>1448.208736514775</v>
       </c>
       <c r="U46" t="n">
-        <v>1247.394413705062</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V46" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9684626874301</v>
+        <v>879.9684626874312</v>
       </c>
       <c r="X46" t="n">
-        <v>740.3167654020206</v>
+        <v>740.3167654020216</v>
       </c>
       <c r="Y46" t="n">
         <v>607.862039871099</v>
@@ -7982,13 +7982,13 @@
         <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
         <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8064,19 +8064,19 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
         <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q6" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>309.7318955201631</v>
+        <v>313.5062973928016</v>
       </c>
       <c r="L8" t="n">
-        <v>329.182861317809</v>
+        <v>328.2591933767769</v>
       </c>
       <c r="M8" t="n">
-        <v>323.7626795750945</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>322.8295099444127</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>323.5146577695077</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>231.2578853221808</v>
+        <v>231.25788532218</v>
       </c>
       <c r="L9" t="n">
-        <v>158.1009106052291</v>
+        <v>231.9708261276952</v>
       </c>
       <c r="M9" t="n">
-        <v>235.5504802698401</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>224.7581584311543</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>227.390853762152</v>
+        <v>153.5209382396845</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.03959551292702</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>266.7431616035997</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>165.3285480751512</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617263494</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>335.456513833687</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>207.7416885123371</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>418.9459514760946</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>7.083830627498926</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>210.0883929120191</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>323.2899047528387</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>441.967925449365</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>20.72114122105256</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.03959551292837</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>335.4565138336862</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>441.9679254493651</v>
       </c>
       <c r="N21" t="n">
-        <v>48.10560617263502</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.03959551292837</v>
+        <v>55.03959551292766</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>48.10560617263494</v>
+        <v>48.10560617263548</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>48.10560617263508</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>48.10560617263477</v>
+        <v>48.10560617263508</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>207.7416885123375</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.25797100075818</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>441.9679254493651</v>
       </c>
       <c r="N33" t="n">
-        <v>48.10560617263502</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>335.4565138336867</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>207.7416885123371</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>48.10560617263548</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>186.2236012992078</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>335.4565138336866</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>98.25797100075914</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>68.29886828944919</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>48.10560617263502</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292812</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.25797100075914</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298247</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>48.10560617263548</v>
       </c>
       <c r="N42" t="n">
-        <v>48.10560617263531</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11318,7 +11318,7 @@
         <v>98.25797100075914</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298247</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.314504061156185e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.53113973899833</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>66.43197323461608</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.71010725727947</v>
+        <v>72.71010725727945</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.26456846746387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>49.1711922558382</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>12.52735225031196</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>85.23745950758963</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.52735225031225</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.71010725727947</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.26456846746389</v>
+        <v>43.26456846746381</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.17119225583822</v>
+        <v>49.17119225583814</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.428190898877801e-12</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686042.3446410464</v>
+        <v>686042.3446410465</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684886.9878989856</v>
+        <v>684886.9878989855</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684886.9878989855</v>
+        <v>684886.9878989856</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686042.3446410464</v>
+        <v>686042.3446410465</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686042.3446410464</v>
+        <v>686042.3446410465</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>821041.7698642837</v>
+      </c>
+      <c r="F2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="H2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="E2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="F2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>821041.7698642829</v>
-      </c>
-      <c r="H2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="I2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="J2" t="n">
         <v>816777.6125787415</v>
       </c>
       <c r="K2" t="n">
-        <v>816777.6125787416</v>
+        <v>816777.6125787414</v>
       </c>
       <c r="L2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="M2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>821041.7698642839</v>
+      </c>
+      <c r="O2" t="n">
         <v>821041.7698642835</v>
       </c>
-      <c r="N2" t="n">
-        <v>821041.7698642829</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642836</v>
-      </c>
       <c r="P2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15309.1740228641</v>
+        <v>15309.17402286386</v>
       </c>
       <c r="E3" t="n">
-        <v>786425.3873581573</v>
+        <v>786425.3873581574</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83085.2217577117</v>
+        <v>83085.22175771167</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>11145.05361488167</v>
+        <v>11145.0536148816</v>
       </c>
       <c r="M3" t="n">
-        <v>200030.0140911022</v>
+        <v>200030.0140911023</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>64001.59152956247</v>
+        <v>64001.59152956251</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>378169.7301196533</v>
+        <v>378169.7301196535</v>
       </c>
       <c r="E4" t="n">
-        <v>159263.0340515218</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="F4" t="n">
         <v>159263.0340515217</v>
@@ -26433,16 +26433,16 @@
         <v>159263.0340515218</v>
       </c>
       <c r="H4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="I4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="J4" t="n">
-        <v>153788.3361621244</v>
+        <v>153788.3361621245</v>
       </c>
       <c r="K4" t="n">
-        <v>153788.3361621244</v>
+        <v>153788.3361621245</v>
       </c>
       <c r="L4" t="n">
         <v>159263.0340515217</v>
@@ -26454,10 +26454,10 @@
         <v>159263.0340515217</v>
       </c>
       <c r="O4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="P4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>39307.31993794756</v>
+        <v>39307.31993794751</v>
       </c>
       <c r="E5" t="n">
         <v>74772.39637346867</v>
       </c>
       <c r="F5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="G5" t="n">
         <v>74772.39637346868</v>
       </c>
       <c r="H5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="I5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="J5" t="n">
         <v>75897.230531475</v>
       </c>
       <c r="K5" t="n">
-        <v>75897.230531475</v>
+        <v>75897.23053147498</v>
       </c>
       <c r="L5" t="n">
-        <v>74772.39637346865</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="M5" t="n">
         <v>74772.39637346867</v>
       </c>
       <c r="N5" t="n">
+        <v>74772.39637346867</v>
+      </c>
+      <c r="O5" t="n">
         <v>74772.39637346868</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74772.39637346867</v>
       </c>
       <c r="P5" t="n">
         <v>74772.39637346867</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383845.674912349</v>
+        <v>383845.6749123493</v>
       </c>
       <c r="C6" t="n">
-        <v>398635.3809165934</v>
+        <v>398635.3809165931</v>
       </c>
       <c r="D6" t="n">
-        <v>388255.5457838185</v>
+        <v>388255.5457838188</v>
       </c>
       <c r="E6" t="n">
-        <v>-199419.0479188643</v>
+        <v>-199419.0479188641</v>
       </c>
       <c r="F6" t="n">
+        <v>587006.3394392927</v>
+      </c>
+      <c r="G6" t="n">
+        <v>587006.339439293</v>
+      </c>
+      <c r="H6" t="n">
+        <v>587006.3394392928</v>
+      </c>
+      <c r="I6" t="n">
         <v>587006.3394392931</v>
       </c>
-      <c r="G6" t="n">
-        <v>587006.3394392924</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>503996.1637342165</v>
+      </c>
+      <c r="K6" t="n">
+        <v>587081.3854919281</v>
+      </c>
+      <c r="L6" t="n">
+        <v>575861.2858244111</v>
+      </c>
+      <c r="M6" t="n">
+        <v>386976.3253481907</v>
+      </c>
+      <c r="N6" t="n">
+        <v>587006.3394392934</v>
+      </c>
+      <c r="O6" t="n">
+        <v>523004.7479097305</v>
+      </c>
+      <c r="P6" t="n">
         <v>587006.3394392929</v>
-      </c>
-      <c r="I6" t="n">
-        <v>587006.3394392929</v>
-      </c>
-      <c r="J6" t="n">
-        <v>504006.8241274304</v>
-      </c>
-      <c r="K6" t="n">
-        <v>587092.0458851422</v>
-      </c>
-      <c r="L6" t="n">
-        <v>575861.2858244113</v>
-      </c>
-      <c r="M6" t="n">
-        <v>386976.3253481909</v>
-      </c>
-      <c r="N6" t="n">
-        <v>587006.3394392924</v>
-      </c>
-      <c r="O6" t="n">
-        <v>523004.7479097308</v>
-      </c>
-      <c r="P6" t="n">
-        <v>587006.3394392927</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J2" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="K2" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="L2" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M2" t="n">
         <v>87.4544750764817</v>
@@ -26722,7 +26722,7 @@
         <v>87.4544750764817</v>
       </c>
       <c r="O2" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="P2" t="n">
         <v>87.4544750764817</v>
@@ -26744,34 +26744,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="I3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="J3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="K3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="L3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="M3" t="n">
         <v>593.476100338065</v>
       </c>
       <c r="N3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="O3" t="n">
         <v>593.476100338065</v>
@@ -26793,31 +26793,31 @@
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>93.41644634782176</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="E4" t="n">
-        <v>896.0922223831267</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="F4" t="n">
+        <v>896.0922223831269</v>
+      </c>
+      <c r="G4" t="n">
+        <v>896.0922223831269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>896.0922223831268</v>
+      </c>
+      <c r="I4" t="n">
+        <v>896.0922223831268</v>
+      </c>
+      <c r="J4" t="n">
+        <v>924.8974390827581</v>
+      </c>
+      <c r="K4" t="n">
+        <v>924.897439082758</v>
+      </c>
+      <c r="L4" t="n">
         <v>896.092222383127</v>
-      </c>
-      <c r="G4" t="n">
-        <v>896.092222383127</v>
-      </c>
-      <c r="H4" t="n">
-        <v>896.092222383127</v>
-      </c>
-      <c r="I4" t="n">
-        <v>896.092222383127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>924.8974390827582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>924.8974390827582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>896.0922223831267</v>
       </c>
       <c r="M4" t="n">
         <v>896.0922223831269</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>7.452485664528609</v>
+        <v>7.452485664528552</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195313</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.476100338065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.28427396859318</v>
+        <v>49.2842739685924</v>
       </c>
       <c r="E4" t="n">
-        <v>802.675776035305</v>
+        <v>802.6757760353059</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>72.93738907885972</v>
+        <v>72.93738907885984</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.47905726896168</v>
+        <v>20.47905726896158</v>
       </c>
       <c r="M4" t="n">
-        <v>802.6757760353053</v>
+        <v>802.6757760353058</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195315</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>49.28427396859318</v>
+        <v>49.2842739685924</v>
       </c>
       <c r="M4" t="n">
-        <v>802.675776035305</v>
+        <v>802.6757760353059</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>364.9987412097946</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>362.7438733624829</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>234.4140240453693</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6615662182428</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>109.3200394592721</v>
       </c>
       <c r="E3" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3017902673406</v>
+        <v>104.2327805547648</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7679170219033</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27628,7 +27628,7 @@
         <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>398.3711086526678</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,10 +27664,10 @@
         <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>192.0884407237781</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27695,16 +27695,16 @@
         <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2005289107765</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>294.3418242466788</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>288.51392372444</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>313.4595993938897</v>
+        <v>361.8375658828431</v>
       </c>
       <c r="G8" t="n">
-        <v>321.8862911673133</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>56.45267159332869</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>255.824522369592</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>276.3146543306481</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>90.42729304515437</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>54.02861921681699</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>64.22863410757918</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>58.76819295381726</v>
       </c>
       <c r="G9" t="n">
-        <v>43.92707081538887</v>
+        <v>43.92707081538964</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>18.81899788867547</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -28029,10 +28029,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28059,13 +28059,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>130.6001516891505</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>246.5485081189446</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.45447507648176</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T20" t="n">
-        <v>87.45447507648154</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T23" t="n">
         <v>87.45447507648154</v>
       </c>
       <c r="U23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="C26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="D26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="E26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="F26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="G26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="H26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="I26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="T26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="U26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="V26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="W26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="X26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="C28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="D28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="E28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="F28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="G28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="H28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="I28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="J28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="K28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="L28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="M28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="N28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="O28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="P28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="R28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="S28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="T28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="U28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="V28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="W28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="X28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195312</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="C29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="D29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="E29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="F29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="G29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="H29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="I29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="T29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="U29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="V29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="W29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="X29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="C31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="D31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="E31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="F31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="G31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="H31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="I31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="J31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="K31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="L31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="M31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="N31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="O31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="P31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="R31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="S31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="T31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="U31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="V31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="W31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="X31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.00198941195318</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="35">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="C41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="D41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="E41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="F41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="G41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="H41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="I41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="T41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="U41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="V41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="W41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="X41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="C43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="D43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="E43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="F43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="G43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="H43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="I43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="K43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="L43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="M43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="N43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="O43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="P43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="R43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="S43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="T43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="U43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="V43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="W43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="X43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.45447507648164</v>
+        <v>87.45447507648176</v>
       </c>
     </row>
     <row r="44">
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937401</v>
@@ -31765,28 +31765,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N11" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T11" t="n">
         <v>10.44398644916534</v>
@@ -31835,19 +31835,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J12" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L12" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N12" t="n">
         <v>332.0050874900653</v>
@@ -31856,22 +31856,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S12" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M13" t="n">
         <v>167.7591540676927</v>
@@ -31938,7 +31938,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R13" t="n">
         <v>48.12020970937817</v>
@@ -31947,10 +31947,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J14" t="n">
         <v>202.4946418937401</v>
@@ -32002,28 +32002,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N14" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T14" t="n">
         <v>10.44398644916534</v>
@@ -32072,19 +32072,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J15" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L15" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N15" t="n">
         <v>332.0050874900653</v>
@@ -32093,22 +32093,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q15" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S15" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,19 +32148,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K16" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M16" t="n">
         <v>167.7591540676927</v>
@@ -32175,7 +32175,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R16" t="n">
         <v>48.12020970937817</v>
@@ -32184,10 +32184,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937401</v>
@@ -32239,28 +32239,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N17" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T17" t="n">
         <v>10.44398644916534</v>
@@ -32309,19 +32309,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J18" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L18" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N18" t="n">
         <v>332.0050874900653</v>
@@ -32330,22 +32330,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q18" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S18" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,19 +32385,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M19" t="n">
         <v>167.7591540676927</v>
@@ -32412,7 +32412,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R19" t="n">
         <v>48.12020970937817</v>
@@ -32421,10 +32421,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937401</v>
@@ -32476,28 +32476,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N20" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T20" t="n">
         <v>10.44398644916534</v>
@@ -32546,19 +32546,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J21" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L21" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N21" t="n">
         <v>332.0050874900653</v>
@@ -32567,22 +32567,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S21" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M22" t="n">
         <v>167.7591540676927</v>
@@ -32649,7 +32649,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R22" t="n">
         <v>48.12020970937817</v>
@@ -32658,10 +32658,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H23" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I23" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J23" t="n">
         <v>202.4946418937401</v>
@@ -32713,28 +32713,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L23" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M23" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N23" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O23" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P23" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q23" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T23" t="n">
         <v>10.44398644916534</v>
@@ -32783,19 +32783,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I24" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J24" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K24" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L24" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M24" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N24" t="n">
         <v>332.0050874900653</v>
@@ -32804,22 +32804,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P24" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q24" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R24" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S24" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,19 +32859,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H25" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I25" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J25" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K25" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L25" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M25" t="n">
         <v>167.7591540676927</v>
@@ -32886,7 +32886,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R25" t="n">
         <v>48.12020970937817</v>
@@ -32895,10 +32895,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T25" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H26" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I26" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J26" t="n">
         <v>202.4946418937401</v>
@@ -32950,28 +32950,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L26" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M26" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N26" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O26" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P26" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T26" t="n">
         <v>10.44398644916534</v>
@@ -33020,19 +33020,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I27" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J27" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K27" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L27" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M27" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N27" t="n">
         <v>332.0050874900653</v>
@@ -33041,22 +33041,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P27" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q27" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R27" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S27" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,19 +33096,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H28" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I28" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J28" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K28" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L28" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M28" t="n">
         <v>167.7591540676927</v>
@@ -33123,7 +33123,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R28" t="n">
         <v>48.12020970937817</v>
@@ -33132,10 +33132,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T28" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H29" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I29" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J29" t="n">
         <v>202.4946418937401</v>
@@ -33187,28 +33187,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L29" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M29" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N29" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O29" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P29" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T29" t="n">
         <v>10.44398644916534</v>
@@ -33257,19 +33257,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I30" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J30" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K30" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L30" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M30" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N30" t="n">
         <v>332.0050874900653</v>
@@ -33278,22 +33278,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P30" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q30" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R30" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S30" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,19 +33333,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H31" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I31" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J31" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K31" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L31" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M31" t="n">
         <v>167.7591540676927</v>
@@ -33360,7 +33360,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R31" t="n">
         <v>48.12020970937817</v>
@@ -33369,10 +33369,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T31" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H32" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I32" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J32" t="n">
         <v>202.4946418937401</v>
@@ -33424,28 +33424,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L32" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M32" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N32" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O32" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P32" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T32" t="n">
         <v>10.44398644916534</v>
@@ -33494,19 +33494,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I33" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J33" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K33" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L33" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M33" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N33" t="n">
         <v>332.0050874900653</v>
@@ -33515,22 +33515,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P33" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q33" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R33" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S33" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,19 +33570,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H34" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I34" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J34" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K34" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L34" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M34" t="n">
         <v>167.7591540676927</v>
@@ -33597,7 +33597,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R34" t="n">
         <v>48.12020970937817</v>
@@ -33606,10 +33606,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T34" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H38" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I38" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J38" t="n">
         <v>202.4946418937401</v>
@@ -33898,28 +33898,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L38" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M38" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N38" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O38" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P38" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q38" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T38" t="n">
         <v>10.44398644916534</v>
@@ -33968,19 +33968,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I39" t="n">
-        <v>43.95082441182841</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J39" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K39" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L39" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M39" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N39" t="n">
         <v>332.0050874900653</v>
@@ -33989,22 +33989,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P39" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q39" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R39" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S39" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,19 +34044,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H40" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I40" t="n">
-        <v>32.18391704784131</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J40" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K40" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L40" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M40" t="n">
         <v>167.7591540676927</v>
@@ -34071,7 +34071,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.61489115104783</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R40" t="n">
         <v>48.12020970937817</v>
@@ -34080,10 +34080,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T40" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330016</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>89.64204447518252</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="L8" t="n">
-        <v>93.41644634782176</v>
+        <v>92.49277840678965</v>
       </c>
       <c r="M8" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>93.41644634782176</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="L9" t="n">
-        <v>19.54653082535494</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="M9" t="n">
-        <v>93.41644634782176</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>93.41644634782099</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>93.41644634782176</v>
+        <v>19.54653082535421</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.48833287998086</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N11" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>438.6310659641647</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>233.6192750078351</v>
       </c>
       <c r="L12" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>229.416046934862</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.75863319471277</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K13" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257931</v>
       </c>
       <c r="M13" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N13" t="n">
-        <v>295.3568637998195</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O13" t="n">
-        <v>263.3079047619352</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P13" t="n">
-        <v>214.1691989134673</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.9073229758352</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M14" t="n">
-        <v>524.0417793138968</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N14" t="n">
         <v>633.6441091513602</v>
@@ -35662,10 +35662,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>319.5945422997376</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>600.2563922383216</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P15" t="n">
-        <v>116.871333180326</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q15" t="n">
         <v>233.0438950105733</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K16" t="n">
         <v>189.5230908296229</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257931</v>
       </c>
       <c r="M16" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N16" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O16" t="n">
         <v>263.3079047619351</v>
@@ -35823,7 +35823,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.90732297583514</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040863</v>
+        <v>293.4855187449406</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N17" t="n">
-        <v>519.5870894922148</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
@@ -35969,16 +35969,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>642.6313008560969</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P18" t="n">
-        <v>130.5086437738797</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105733</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K19" t="n">
         <v>189.5230908296229</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>76.48833287998221</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730422</v>
+        <v>524.0417793138959</v>
       </c>
       <c r="N20" t="n">
         <v>633.6441091513602</v>
@@ -36136,10 +36136,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
@@ -36206,16 +36206,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622271</v>
+        <v>623.2783662115921</v>
       </c>
       <c r="N21" t="n">
-        <v>248.768981579367</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105733</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K22" t="n">
         <v>189.5230908296229</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>76.48833287998221</v>
+        <v>76.48833287998147</v>
       </c>
       <c r="K23" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M23" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N23" t="n">
         <v>633.6441091513602</v>
@@ -36373,10 +36373,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K24" t="n">
         <v>332.7559639452625</v>
@@ -36443,16 +36443,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>229.416046934862</v>
+        <v>229.4160469348625</v>
       </c>
       <c r="N24" t="n">
-        <v>200.663375406732</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P24" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105733</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K25" t="n">
         <v>189.5230908296229</v>
@@ -36598,10 +36598,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N26" t="n">
         <v>633.6441091513602</v>
@@ -36610,10 +36610,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P26" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K27" t="n">
         <v>332.7559639452625</v>
@@ -36680,16 +36680,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>229.4160469348618</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O27" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105733</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.30614753018411</v>
+        <v>62.30614753018412</v>
       </c>
       <c r="K28" t="n">
         <v>182.0706051650943</v>
@@ -36835,10 +36835,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M29" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N29" t="n">
         <v>633.6441091513602</v>
@@ -36847,10 +36847,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
@@ -36917,16 +36917,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>181.3104407622271</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N30" t="n">
-        <v>248.7689815793668</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.30614753018411</v>
+        <v>62.30614753018418</v>
       </c>
       <c r="K31" t="n">
-        <v>182.0706051650943</v>
+        <v>182.0706051650944</v>
       </c>
       <c r="L31" t="n">
         <v>266.7019842612646</v>
@@ -37002,13 +37002,13 @@
         <v>287.9043781352908</v>
       </c>
       <c r="O31" t="n">
-        <v>255.8554190974065</v>
+        <v>255.8554190974066</v>
       </c>
       <c r="P31" t="n">
-        <v>206.7167132489386</v>
+        <v>206.7167132489387</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.45483731130653</v>
+        <v>83.45483731130659</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N32" t="n">
         <v>633.6441091513602</v>
@@ -37084,10 +37084,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>433.6515619588832</v>
+        <v>319.594542299738</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.5954659720664</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K33" t="n">
         <v>332.7559639452625</v>
@@ -37154,16 +37154,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>181.3104407622271</v>
+        <v>623.2783662115921</v>
       </c>
       <c r="N33" t="n">
-        <v>248.768981579367</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471269</v>
       </c>
       <c r="K34" t="n">
         <v>189.5230908296229</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257931</v>
       </c>
       <c r="M34" t="n">
-        <v>294.797506106015</v>
+        <v>294.7975061060149</v>
       </c>
       <c r="N34" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998193</v>
       </c>
       <c r="O34" t="n">
         <v>263.3079047619351</v>
@@ -37245,7 +37245,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.90732297583514</v>
+        <v>90.9073229758351</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>558.3972305517162</v>
       </c>
       <c r="M35" t="n">
-        <v>524.0417793138963</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
@@ -37321,7 +37321,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588831</v>
+        <v>319.5945422997376</v>
       </c>
       <c r="Q35" t="n">
         <v>247.6524856312128</v>
@@ -37388,19 +37388,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>229.4160469348625</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>200.6633754067319</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269927</v>
+        <v>347.347149449471</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927642</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37546,10 +37546,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M38" t="n">
-        <v>524.0417793138963</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N38" t="n">
         <v>633.6441091513602</v>
@@ -37558,10 +37558,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312129</v>
+        <v>133.5954659720673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L39" t="n">
-        <v>509.4561008748672</v>
+        <v>206.9146238608572</v>
       </c>
       <c r="M39" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>248.768981579367</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269927</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>428.2502711927642</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0438950105733</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.75863319471271</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K40" t="n">
         <v>189.5230908296229</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257931</v>
       </c>
       <c r="M40" t="n">
         <v>294.797506106015</v>
@@ -37719,7 +37719,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.90732297583514</v>
+        <v>90.90732297583511</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998193</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
@@ -37798,7 +37798,7 @@
         <v>433.6515619588831</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.5954659720673</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>181.310440762227</v>
+        <v>229.4160469348625</v>
       </c>
       <c r="N42" t="n">
-        <v>248.7689815793672</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269927</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.75863319471264</v>
+        <v>69.75863319471276</v>
       </c>
       <c r="K43" t="n">
-        <v>189.5230908296228</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1544699257931</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M43" t="n">
-        <v>294.7975061060149</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N43" t="n">
-        <v>295.3568637998193</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O43" t="n">
-        <v>263.307904761935</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P43" t="n">
-        <v>214.1691989134671</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.90732297583506</v>
+        <v>90.90732297583517</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
